--- a/Documentation/Testēšanas dokuimentācija.xlsx
+++ b/Documentation/Testēšanas dokuimentācija.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mazzy\Unity\CyberShock\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlis.melveris\Personal files\CyberShock\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{39733395-35D4-4655-B15F-BE5BC158F4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A904C98A-E6C7-44BB-90E3-AA9A2186E8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apraksts" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="161">
   <si>
     <t>Identifikatoru atšifrējums:</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t xml:space="preserve">Apturēta programma </t>
-  </si>
-  <si>
-    <t>Programmas darbība netiek ietekmēta</t>
   </si>
   <si>
     <t>Testēšanas ID</t>
@@ -347,22 +344,212 @@
     <t>TP.FA.02</t>
   </si>
   <si>
-    <t>TP.FA.03</t>
-  </si>
-  <si>
-    <t>TP.FA.04</t>
-  </si>
-  <si>
-    <t>TP.FA.05</t>
-  </si>
-  <si>
     <t>Programmas apturēšanas poga</t>
+  </si>
+  <si>
+    <t>Sākumlapā Iestatījuma poga</t>
+  </si>
+  <si>
+    <t>Sākumlapā nospiežot iestatījumu pogu, tiek atvērti iestatījumi</t>
+  </si>
+  <si>
+    <t>1) Kad ir atvērta sākuma lapa tiek nospiesta "Settings" poga</t>
+  </si>
+  <si>
+    <t>Programma tiek aizvērta</t>
+  </si>
+  <si>
+    <t>Iestatījumi ir atvērti</t>
+  </si>
+  <si>
+    <t>TP.SĀK.FA.01</t>
+  </si>
+  <si>
+    <t>TP.SĀK.FA.02</t>
+  </si>
+  <si>
+    <t>TP.SĀK.FA.03</t>
+  </si>
+  <si>
+    <t>Sākumlapā spēlēt poga</t>
+  </si>
+  <si>
+    <t>1) Kad ir atvērta sākuma lapa tiek nospiesta "Play" poga</t>
+  </si>
+  <si>
+    <t>Sākumlapā nospiežot spēlēt pogu, tiek atvērta izvēlnes</t>
+  </si>
+  <si>
+    <t>Izvēlne ir atvērta</t>
+  </si>
+  <si>
+    <t>TP.IZV.VA.01</t>
+  </si>
+  <si>
+    <t>Izvēles izskata ģenerācija</t>
+  </si>
+  <si>
+    <t>Ja ir faili Resorces/Map-data folderī, tiem ir jābūt izlasītiem un pievienotiem izvēlnē</t>
+  </si>
+  <si>
+    <t>1) Ievietot dziesmas datus iekšā Resorces/map-data folderī
+2) Atver programmu
+3) Atver izvēlnes sadaļu</t>
+  </si>
+  <si>
+    <t>1) Dziesmas dati iekšā Resorces/map-data folderī
+2) kreisais klikšķis, lai nokļūtu Izvēlnē</t>
+  </si>
+  <si>
+    <t>TP.IZV.VA.02</t>
+  </si>
+  <si>
+    <t>Ja ir faili Resorces/Map-data folderī, tiem ir jābūt izvēlamiem un ir iespējams izvēlēties grūtības</t>
+  </si>
+  <si>
+    <t>Atverot izvēni labajā pusē ir jābūt redzamai dziesmas nosaukumam un foto</t>
+  </si>
+  <si>
+    <t>Izvēlnes labajā  pusē ir redzama dziesmas foto un dziesmas nosaukums</t>
+  </si>
+  <si>
+    <t>1) Ievietot dziesmas datus iekšā Resorces/map-data folderī
+2) Atver programmu
+3) Atver izvēlnes sadaļu
+4) Izvēlēta dziesma</t>
+  </si>
+  <si>
+    <t>1) Dziesmas dati iekšā Resorces/map-data folderī
+2) kreisais klikšķis, lai nokļūtu Izvēlnē
+3) Kāda no dziesmām ir izvēlēta</t>
+  </si>
+  <si>
+    <t>TP.IZV.FA.01</t>
+  </si>
+  <si>
+    <t>Izvēles dziesmas datu izskata ģenerācija</t>
+  </si>
+  <si>
+    <t>Ja ir izvēlēta dziesma, tās top 5 augstākie punki ir redzami.</t>
+  </si>
+  <si>
+    <t>Ja ir izvēlēta dziesma tās "High score" ir jābūt redzamiem</t>
+  </si>
+  <si>
+    <t>Kreisajā pusē ir redzami 5 augstāk iegūtie punkti dilstoši uz leju.</t>
+  </si>
+  <si>
+    <t>Izvēlnē atpakaļ poga</t>
+  </si>
+  <si>
+    <t>Pēc nospiešanas atverās logs kurā atrodas izvēlnes sadaļa</t>
+  </si>
+  <si>
+    <t>Pēc nospiešanas atverās logs kurā atrodas iestatījumu sadaļa</t>
+  </si>
+  <si>
+    <t>Pēc nospiešanas atverās sākumlapas logs</t>
+  </si>
+  <si>
+    <t>TP.IZV.FA.02</t>
+  </si>
+  <si>
+    <t>1) Kad ir atvērta sākuma lapa tiek nospiesta "Back" poga</t>
+  </si>
+  <si>
+    <t>Izvēlnē pēc pogas "back" nospiešanas tiek nomainīts logs uz sākumlapu</t>
+  </si>
+  <si>
+    <t>1) Navigēt uz izvēlni
+2) Peles kreisā taustiņa klikšķis uz "back" pogu</t>
+  </si>
+  <si>
+    <t>Sākumlapa ir atvērta</t>
+  </si>
+  <si>
+    <t>nospiežot izvēnes lapas labajā pusē dziesmu ir jābūt redzamai tie dati kreisajā pusē</t>
+  </si>
+  <si>
+    <t>Kreisajā pusē var redzēt dziesmas foto, nosaukumu un grūtības iestatījumi.</t>
+  </si>
+  <si>
+    <t>TP.IZV.FA.03</t>
+  </si>
+  <si>
+    <t>Grūtības datu lasīšana</t>
+  </si>
+  <si>
+    <t>Izvēlnē grūtības iestaījumu pogas satur datus kuri ir saistīti ar grūtības līmeņiem, kurus var izvēlēt un vēlāk lietot citām funkcijām</t>
+  </si>
+  <si>
+    <t>Izvēlētās dziesmas grūtības līmeņi ir redzami un satur datus, kā piemēram nosaukumu un krāsu.</t>
+  </si>
+  <si>
+    <t>1) Izvēlnē tiek izvēlēta dziesma
+2) Tiek salīdzināti dati kas ir rakstīti dziesmas datos</t>
+  </si>
+  <si>
+    <t>Ja dziesmas datos ir noteikts ka grūtības līmeņa krāsai ir jābūt zaļai un nosaukumam "easy", tad pogai kas ir domāta tai izvēlei ir arī jābūt zaļai</t>
+  </si>
+  <si>
+    <t>TP.IZV.FA.04</t>
+  </si>
+  <si>
+    <t>Grūtības izvēles lmitācija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pirms lietotājs var spēlēt līmeni ir obligāti jāizvēlas grūtība pirms ir pieja </t>
+  </si>
+  <si>
+    <t>Pirms nospiež "Play" ir jāizvēles līmeņa grūtība</t>
+  </si>
+  <si>
+    <t>1) Dziesmas dati ir ievietoti iekšā Resorces/map-data folderī
+2) Izvēlnē izvēlēta dziesma</t>
+  </si>
+  <si>
+    <t>1) Izvēlnē tiek izvēlēta dziesma
+2) Tiek nospiesta play pirms un pēc grūtības izvēles</t>
+  </si>
+  <si>
+    <t>1) Dziesmas dati ir ievietoti iekšā Resorces/map-data folderī
+2) kreisais klikšķis uz pogām</t>
+  </si>
+  <si>
+    <t>Ja nav izvēlēta grūtība tad "play" poga neko nedara, līdz ir izvēlēta grūtība</t>
+  </si>
+  <si>
+    <t>TP.IZV.FA.05</t>
+  </si>
+  <si>
+    <t>Atvērt dziesmas datus spēles logā</t>
+  </si>
+  <si>
+    <t>Nospiežot play pogu tiek izlasīti kas ir saistīti ar tās dziesmas līmeni un tiek atvērta spēles sadaļa ar dziesmas līmeņa datiem</t>
+  </si>
+  <si>
+    <t>"Play" poga atver spēles logu ar līmeņa datiem</t>
+  </si>
+  <si>
+    <t>1) Ievietot dziesmas datus iekšā Resorces/map-data folderī
+2) Atver programmu
+3) Atver izvēlnes sadaļu
+4) Izvēlēta dziesma
+5) izvēlēta grūtība
+6) nospiesta "Play poga"</t>
+  </si>
+  <si>
+    <t>1) Dziesmas līmeņa dati
+2) Kreisais peles klikšķis</t>
+  </si>
+  <si>
+    <t>Atverās dziesmas līmenis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,40 +730,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -585,59 +751,76 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -968,38 +1151,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="A1" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1022,80 +1205,80 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="30" t="s">
+      <c r="B11" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="C14" s="22"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="30"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="B15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1116,12 +1299,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,199 +1314,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="29" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="29"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="B6" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B7" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B8" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="29"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="34" t="s">
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="B18" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="34" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="B19" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B20" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B21" s="19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B22" s="19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B23" s="19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="9"/>
+      <c r="A24" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="29"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="34"/>
+      <c r="B25" s="19"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="34"/>
+      <c r="B26" s="19"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="34"/>
+      <c r="B27" s="19"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="34"/>
+      <c r="B28" s="19"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="34"/>
+      <c r="B29" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1339,186 +1522,435 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="27" t="s">
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="G4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="36" t="s">
+      <c r="D6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="F6" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="36" t="s">
+      <c r="C7" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="36" t="s">
+      <c r="G7" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>103</v>
-      </c>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A9:H9"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,89 +1964,86 @@
     <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="B3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="22" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1625,8 +2054,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1645,67 +2074,62 @@
     <col min="8" max="8" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="18"/>
+      <c r="E3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentation/Testēšanas dokuimentācija.xlsx
+++ b/Documentation/Testēšanas dokuimentācija.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlis.melveris\Personal files\CyberShock\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mazzy\Unity\CyberShock\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A904C98A-E6C7-44BB-90E3-AA9A2186E8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4446F930-543F-4323-8216-F303A97DB4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apraksts" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="257">
   <si>
     <t>Identifikatoru atšifrējums:</t>
   </si>
@@ -430,13 +430,7 @@
     <t>Izvēles dziesmas datu izskata ģenerācija</t>
   </si>
   <si>
-    <t>Ja ir izvēlēta dziesma, tās top 5 augstākie punki ir redzami.</t>
-  </si>
-  <si>
     <t>Ja ir izvēlēta dziesma tās "High score" ir jābūt redzamiem</t>
-  </si>
-  <si>
-    <t>Kreisajā pusē ir redzami 5 augstāk iegūtie punkti dilstoši uz leju.</t>
   </si>
   <si>
     <t>Izvēlnē atpakaļ poga</t>
@@ -470,9 +464,6 @@
     <t>nospiežot izvēnes lapas labajā pusē dziesmu ir jābūt redzamai tie dati kreisajā pusē</t>
   </si>
   <si>
-    <t>Kreisajā pusē var redzēt dziesmas foto, nosaukumu un grūtības iestatījumi.</t>
-  </si>
-  <si>
     <t>TP.IZV.FA.03</t>
   </si>
   <si>
@@ -480,9 +471,6 @@
   </si>
   <si>
     <t>Izvēlnē grūtības iestaījumu pogas satur datus kuri ir saistīti ar grūtības līmeņiem, kurus var izvēlēt un vēlāk lietot citām funkcijām</t>
-  </si>
-  <si>
-    <t>Izvēlētās dziesmas grūtības līmeņi ir redzami un satur datus, kā piemēram nosaukumu un krāsu.</t>
   </si>
   <si>
     <t>1) Izvēlnē tiek izvēlēta dziesma
@@ -544,6 +532,316 @@
   </si>
   <si>
     <t>Atverās dziesmas līmenis</t>
+  </si>
+  <si>
+    <t>TP.IEST.FA.01</t>
+  </si>
+  <si>
+    <t>Mainīt ekrēna rezolūciju</t>
+  </si>
+  <si>
+    <t>TP.IEST.VA.01</t>
+  </si>
+  <si>
+    <t>Maina rezolūcijas iestatījumus</t>
+  </si>
+  <si>
+    <t>1) Atver iestatījumu lapu
+2) Nospiež pa labi vai kreisi
+3) Vērtība palielinās, vai samazinās</t>
+  </si>
+  <si>
+    <t>Kreisais peles klikšķis</t>
+  </si>
+  <si>
+    <t>Skaitli var mainīt, bet nekas cits nemainas</t>
+  </si>
+  <si>
+    <t>TP.IEST.VA.02</t>
+  </si>
+  <si>
+    <t>TP.IEST.VA.03</t>
+  </si>
+  <si>
+    <t>TP.IEST.VA.04</t>
+  </si>
+  <si>
+    <t>Mainīt ekrēna tipu</t>
+  </si>
+  <si>
+    <t>Maina ekrāna tipu iestatījumu</t>
+  </si>
+  <si>
+    <t>1) Atver iestatījumu lapu
+2) Nospiež pa labi vai kreisi
+3) Vērtība mainās</t>
+  </si>
+  <si>
+    <t>Vērtību var mainīt, bet nekas cits nemainas</t>
+  </si>
+  <si>
+    <t>Mainīt spēles kvalitāti</t>
+  </si>
+  <si>
+    <t>Maina spēles kvalitātes iestatījumu</t>
+  </si>
+  <si>
+    <t>Vērtība var mainīt, bet nekas cits nemainas</t>
+  </si>
+  <si>
+    <t>Mainīt spēles skaļumu</t>
+  </si>
+  <si>
+    <t>1) Atver iestatījumu lapu
+2) Mainot slīdni pa labi vai kreisi mainīs skaļumu</t>
+  </si>
+  <si>
+    <t>TP.IEST.VA.05</t>
+  </si>
+  <si>
+    <t>TP.IEST.VA.06</t>
+  </si>
+  <si>
+    <t>PR.IEST.07</t>
+  </si>
+  <si>
+    <t>Iestatīt  izmainītās vērtības</t>
+  </si>
+  <si>
+    <t>1) Atver iestatījumu lapu
+2) Mainot slīdni pa labi vai kreisi mainīs effektu skaļumu</t>
+  </si>
+  <si>
+    <t>1) Atver iestatījumu lapu
+2) Mainot slīdni pa labi vai kreisi mainīs mūzikas skaļumu</t>
+  </si>
+  <si>
+    <t>Kreisais peles klikšķis un turēšana</t>
+  </si>
+  <si>
+    <t>Akseptēt iestatījumus</t>
+  </si>
+  <si>
+    <t>Visi iestaījumi kuri bija tikai mainīti tikai vizuāli, pēc "Apply" nospiešanas tiek saglabāti un iestatīti kā ir noteikts iepriekšējos iestatījuma testa piemēros</t>
+  </si>
+  <si>
+    <t>1) Atver iestatījumus
+2) Nomaina jebkuru iestatijumu kas nav skaļums.
+3) Nospiest "Apply"</t>
+  </si>
+  <si>
+    <t>Kreisais peles klikšķi</t>
+  </si>
+  <si>
+    <t>Iepriekš noteiktās vērtības tiek iestatītas</t>
+  </si>
+  <si>
+    <t>Mainot slīdņa vērtību mainīs visas spēles skaļumu</t>
+  </si>
+  <si>
+    <t>Pēc nospiešanas visas iepriekš noteiktās vērtības tiek saglabātas un lietotas</t>
+  </si>
+  <si>
+    <t>Maina mūzikas skaļumu</t>
+  </si>
+  <si>
+    <t>Maina effektu skaļumu</t>
+  </si>
+  <si>
+    <t>Maina spēles kopējo skaļumu</t>
+  </si>
+  <si>
+    <t>Kreisajā pusē var redzēt dziesmas foto, nosaukumu un grūtības iestatījumi</t>
+  </si>
+  <si>
+    <t>Kreisajā pusē ir redzami 5 augstāk iegūtie punkti dilstoši uz leju</t>
+  </si>
+  <si>
+    <t>Spiežot pa labi vai kreisi izmainīs skaitli kas reprezentē rezolūciju un saglabā šo skaitli xml failā. Mainot šo skaitli nemainīs ekrāna rezolūciju</t>
+  </si>
+  <si>
+    <t>Spiežot pa labi vai kreisi izmainīs nosaukumi kas reprezentē ekrāna tipu (windowed, borderless window, fullscreen) un saglabā šo vērtību xml failā</t>
+  </si>
+  <si>
+    <t>Spiežot pa labi vai kreisi izmainīs spēles kvalitāti no viss vienkāršākā, līdz viss sarežģītākajam un saglabā šo vērtību xml failā</t>
+  </si>
+  <si>
+    <t>Slīdnī var palielināt vai samazināt kopējo spēles skaļumu, no 0% līdz 100%. Šis iestatījums mainās uzreiz pēc izmaiņas</t>
+  </si>
+  <si>
+    <t>Slīdnī var palielināt vai samazināt effektu skaļumu, no 0% līdz 100%. Šis iestatījums mainās uzreiz pēc izmaiņas</t>
+  </si>
+  <si>
+    <t>Slīdnī var palielināt vai samazināt mūzikas skaļumu, no 0% līdz 100%. Šis iestatījums mainās uzreiz pēc izmaiņas</t>
+  </si>
+  <si>
+    <t>Ja ir izvēlēta dziesma, tās top 5 augstākie punki ir redzami</t>
+  </si>
+  <si>
+    <t>Izvēlētās dziesmas grūtības līmeņi ir redzami un satur datus, kā piemēram nosaukumu un krāsu</t>
+  </si>
+  <si>
+    <t>PR.SP.01</t>
+  </si>
+  <si>
+    <t>Jebkurā momentā var pauzēt spēli, lai mainītu iestatījumus vai iziet no līmeņa</t>
+  </si>
+  <si>
+    <t>PR.SP.02</t>
+  </si>
+  <si>
+    <t>PR.SP.03</t>
+  </si>
+  <si>
+    <t>PR.SP.04</t>
+  </si>
+  <si>
+    <t>PR.SP.05</t>
+  </si>
+  <si>
+    <t>PR.SP.06</t>
+  </si>
+  <si>
+    <t>PR.SP.07</t>
+  </si>
+  <si>
+    <t>PR.SP.08</t>
+  </si>
+  <si>
+    <t>PR.SP.09</t>
+  </si>
+  <si>
+    <t>PR.SP.10</t>
+  </si>
+  <si>
+    <t>Izlasa dziesmas datus</t>
+  </si>
+  <si>
+    <t>Lādēšanās ekrāns kurš parādās ja līmeņa ielādēšana aizņem pārāk ilgu laiku</t>
+  </si>
+  <si>
+    <t>Viena spiediena, kreisās pozīcijas poga</t>
+  </si>
+  <si>
+    <t>Viena spiediena, labās pozīcijas poga</t>
+  </si>
+  <si>
+    <t>Viena spiediena, aukšējās pozīcijas poga</t>
+  </si>
+  <si>
+    <t>Viena spiediena, "space" poga</t>
+  </si>
+  <si>
+    <t>Turēšanas, kreisās pozīcijas poga</t>
+  </si>
+  <si>
+    <t>PR.SP.11</t>
+  </si>
+  <si>
+    <t>PR.SP.12</t>
+  </si>
+  <si>
+    <t>PR.SP.13</t>
+  </si>
+  <si>
+    <t>PR.SP.14</t>
+  </si>
+  <si>
+    <t>Turēšanas, labās pozīcijas poga</t>
+  </si>
+  <si>
+    <t>Turēšanas, aukšējās pozīcijas poga</t>
+  </si>
+  <si>
+    <t>Turēšanas, "space" poga</t>
+  </si>
+  <si>
+    <t>Punkti tiek iedoti pēc prasībām</t>
+  </si>
+  <si>
+    <t>Veselību var samazināt</t>
+  </si>
+  <si>
+    <t>Veselību var palielināt</t>
+  </si>
+  <si>
+    <t>PR.SP.15</t>
+  </si>
+  <si>
+    <t>PR.SP.16</t>
+  </si>
+  <si>
+    <t>PR.SP.17</t>
+  </si>
+  <si>
+    <t>PR.SP.18</t>
+  </si>
+  <si>
+    <t>Līmeņa datus var izlasīt</t>
+  </si>
+  <si>
+    <t>Var ielādēt viena spiediena noti/būltu</t>
+  </si>
+  <si>
+    <t>Var ielādēt turēšanas noti/būltu</t>
+  </si>
+  <si>
+    <t>var notiekt notes ātrumu</t>
+  </si>
+  <si>
+    <t>TP.SP.FA.01</t>
+  </si>
+  <si>
+    <t>Iespēja pauzēt spēli</t>
+  </si>
+  <si>
+    <t>Jebkurā momentā nospeiest "esc", lai pauzētu spēli un atvērt jaunu skatu</t>
+  </si>
+  <si>
+    <t>1) Atvērt spēles sadaļu
+2) nospiest "esc"</t>
+  </si>
+  <si>
+    <t>"esc" poga</t>
+  </si>
+  <si>
+    <t>TP.SP.FA.02</t>
+  </si>
+  <si>
+    <t>TP.SP.FA.03</t>
+  </si>
+  <si>
+    <t>Izlasa dziesmu kas ir Map-data folderī</t>
+  </si>
+  <si>
+    <t>Ielādējot jaunu līmeni tiek atskaņota dziesma</t>
+  </si>
+  <si>
+    <t>Atvērta spēles sadaļa ar dziesmas failu</t>
+  </si>
+  <si>
+    <t>Atver pauzēšanas ekrānu</t>
+  </si>
+  <si>
+    <t>Mūzika tiek atskaņota</t>
+  </si>
+  <si>
+    <t>Pievienojot vairākus milzīgus failus "map-data" folderī</t>
+  </si>
+  <si>
+    <t>Lādēšanās ekrāns</t>
+  </si>
+  <si>
+    <t>TP.SP.VA.01</t>
+  </si>
+  <si>
+    <t>Ja faili aizņem pārāk ilgu laiku lai ielādētos ir jābūt redzamam ka spēle lādējas</t>
+  </si>
+  <si>
+    <t>Spēle rāda lādēšanās ekrānu</t>
+  </si>
+  <si>
+    <t>Lādēšanās ekrāns parādas</t>
   </si>
 </sst>
 </file>
@@ -730,7 +1028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -775,6 +1073,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -811,11 +1115,8 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1161,28 +1462,28 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1205,80 +1506,80 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1300,11 +1601,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,8 +1623,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1342,10 +1643,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="31"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
@@ -1372,10 +1673,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="31"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -1434,10 +1735,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="31"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
@@ -1488,30 +1789,167 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="29"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
+      <c r="B25" s="31"/>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
+      <c r="A27" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
+      <c r="A29" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>238</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A9:B9"/>
@@ -1523,11 +1961,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,16 +2007,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -1633,14 +2071,14 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -1675,10 +2113,10 @@
       <c r="B7" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="34" t="s">
+      <c r="C7" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>102</v>
       </c>
       <c r="E7" s="21" t="s">
@@ -1687,7 +2125,7 @@
       <c r="F7" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="22" t="s">
         <v>105</v>
       </c>
       <c r="H7" s="21" t="s">
@@ -1695,16 +2133,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>111</v>
       </c>
       <c r="E8" s="16" t="s">
@@ -1713,7 +2151,7 @@
       <c r="F8" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="22" t="s">
         <v>112</v>
       </c>
       <c r="H8" s="16" t="s">
@@ -1721,35 +2159,35 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
     </row>
     <row r="10" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="22" t="s">
         <v>116</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="22" t="s">
         <v>121</v>
       </c>
       <c r="H10" s="16" t="s">
@@ -1757,156 +2195,156 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>122</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>139</v>
+      <c r="G11" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="22" t="s">
         <v>122</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="34" t="s">
-        <v>128</v>
+      <c r="G12" s="22" t="s">
+        <v>194</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="34" t="s">
+      <c r="E13" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="F13" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>135</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>137</v>
       </c>
       <c r="H13" s="20" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="F14" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>141</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>145</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="F15" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="G15" s="22" t="s">
         <v>149</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>153</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="F16" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="G16" s="22" t="s">
         <v>156</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>160</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>73</v>
@@ -1922,21 +2360,381 @@
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A25:H25"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1991,16 +2789,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -2095,14 +2893,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">

--- a/Documentation/Testēšanas dokuimentācija.xlsx
+++ b/Documentation/Testēšanas dokuimentācija.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mazzy\Unity\CyberShock\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlis.melveris\Personal files\CyberShock\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4446F930-543F-4323-8216-F303A97DB4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03479FDD-3F21-4A23-B873-FFE7D9DEBC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="2430" windowWidth="38700" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apraksts" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="276">
   <si>
     <t>Identifikatoru atšifrējums:</t>
   </si>
@@ -808,9 +808,6 @@
     <t>TP.SP.FA.02</t>
   </si>
   <si>
-    <t>TP.SP.FA.03</t>
-  </si>
-  <si>
     <t>Izlasa dziesmu kas ir Map-data folderī</t>
   </si>
   <si>
@@ -842,6 +839,71 @@
   </si>
   <si>
     <t>Lādēšanās ekrāns parādas</t>
+  </si>
+  <si>
+    <t>PR.SP.04,
+PR.SP.05,
+PR.SP.06,
+PR.SP.07</t>
+  </si>
+  <si>
+    <t>TP.SP.FA.03.1</t>
+  </si>
+  <si>
+    <t>TP.SP.FA.03.2</t>
+  </si>
+  <si>
+    <t>TP.SP.FA.03.3</t>
+  </si>
+  <si>
+    <t>PR.SP.19</t>
+  </si>
+  <si>
+    <t>Notis iziet no ekrāna un samazina dzīvību</t>
+  </si>
+  <si>
+    <t>Ja lietotājs knapi trāpija notī tad iedod mazāk punktus</t>
+  </si>
+  <si>
+    <t>Ja lietotāja spēles gaitā ir gandrīz pārgājusi nots pāri limitam un ir nospiesta pareizā poga tad jābūt samazinātiem punktiem (100p)</t>
+  </si>
+  <si>
+    <t>"Right", "Left", "up", "d", "a", "w", vai "space"</t>
+  </si>
+  <si>
+    <t>parādas partikuls ar 100p simbolu, tiek iedoti 100p kopēja punktu skaitā, samazināta dzīvība, atskaņota efekta skaņa</t>
+  </si>
+  <si>
+    <t>Ja lietotāja spēles gaitā ir gandrīz perfekti nospiesta pareizā poga tad jābūt iedotiem 200 punktiem</t>
+  </si>
+  <si>
+    <t>1) Atvērt līmeni
+2) Izmantojot paredzamu laika klikšķi vai palēninātu spēli
+3) Jānospiež pareizā poga</t>
+  </si>
+  <si>
+    <t>parādas partikuls ar 200p simbolu, tiek iedoti 200p kopēja punktu skaitā, atskaņota efekta skaņa</t>
+  </si>
+  <si>
+    <t>Gandrīz perfektā nots, vienkikšķa gadijumā</t>
+  </si>
+  <si>
+    <t>Nots vienklikšķa gandrīz  netrāpīšanas  gadijumā</t>
+  </si>
+  <si>
+    <t>Perfektā nots, vienklikšķa gadijumā</t>
+  </si>
+  <si>
+    <t>Ja lietotāja spēles gaitā ir perfekti nospieda pareizo pogu tad jābūt iedotiem 300 punktiem un mazliet dzīvību</t>
+  </si>
+  <si>
+    <t>Ja lietotājs gandrīz dabuja perfektu noti, tiek dots viduvēji dauzd punktu</t>
+  </si>
+  <si>
+    <t>Ja lietotājs dabuja perfektu noti, tiek dots maksimāli dauzd punktu</t>
+  </si>
+  <si>
+    <t>parādas partikuls ar 300p simbolu, tiek iedoti 300p kopēja punktu skaitā, 5% dzīvības ir atdots, atskaņota efekta skaņa</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1090,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1114,9 +1176,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1601,11 +1660,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B37:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,7 +1862,7 @@
       <c r="B25" s="31"/>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="20" t="s">
         <v>203</v>
       </c>
       <c r="B26" s="19" t="s">
@@ -1811,7 +1870,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="20" t="s">
         <v>205</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -1819,7 +1878,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="20" t="s">
         <v>206</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -1827,7 +1886,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="20" t="s">
         <v>207</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -1835,7 +1894,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="20" t="s">
         <v>208</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -1843,7 +1902,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="20" t="s">
         <v>209</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -1851,7 +1910,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="20" t="s">
         <v>210</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -1859,7 +1918,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="20" t="s">
         <v>211</v>
       </c>
       <c r="B33" s="19" t="s">
@@ -1867,7 +1926,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="20" t="s">
         <v>212</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -1875,7 +1934,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="20" t="s">
         <v>213</v>
       </c>
       <c r="B35" s="19" t="s">
@@ -1883,7 +1942,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="20" t="s">
         <v>221</v>
       </c>
       <c r="B36" s="19" t="s">
@@ -1891,58 +1950,66 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="20" t="s">
         <v>222</v>
       </c>
       <c r="B37" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B38" s="19" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="B38" s="19" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="B39" s="19" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="B40" s="19" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="B41" s="19" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="B42" s="19" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="B43" s="19" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>238</v>
       </c>
     </row>
@@ -1964,8 +2031,8 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2572,7 +2639,7 @@
         <v>243</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>203</v>
@@ -2586,19 +2653,19 @@
         <v>214</v>
       </c>
       <c r="C27" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="E27" s="22" t="s">
         <v>247</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>248</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>186</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>205</v>
@@ -2606,66 +2673,106 @@
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="C28" s="22" t="s">
+      <c r="D28" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>255</v>
-      </c>
       <c r="E28" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>186</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="20" t="s">
-        <v>209</v>
+        <v>257</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">

--- a/Documentation/Testēšanas dokuimentācija.xlsx
+++ b/Documentation/Testēšanas dokuimentācija.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlis.melveris\Personal files\CyberShock\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mazzy\Unity\CyberShock\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03479FDD-3F21-4A23-B873-FFE7D9DEBC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0A0A34-0452-49C2-BF14-B3974C952486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="2430" windowWidth="38700" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6990" yWindow="945" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apraksts" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="265">
   <si>
     <t>Identifikatoru atšifrējums:</t>
   </si>
@@ -720,21 +720,6 @@
     <t>Lādēšanās ekrāns kurš parādās ja līmeņa ielādēšana aizņem pārāk ilgu laiku</t>
   </si>
   <si>
-    <t>Viena spiediena, kreisās pozīcijas poga</t>
-  </si>
-  <si>
-    <t>Viena spiediena, labās pozīcijas poga</t>
-  </si>
-  <si>
-    <t>Viena spiediena, aukšējās pozīcijas poga</t>
-  </si>
-  <si>
-    <t>Viena spiediena, "space" poga</t>
-  </si>
-  <si>
-    <t>Turēšanas, kreisās pozīcijas poga</t>
-  </si>
-  <si>
     <t>PR.SP.11</t>
   </si>
   <si>
@@ -744,18 +729,6 @@
     <t>PR.SP.13</t>
   </si>
   <si>
-    <t>PR.SP.14</t>
-  </si>
-  <si>
-    <t>Turēšanas, labās pozīcijas poga</t>
-  </si>
-  <si>
-    <t>Turēšanas, aukšējās pozīcijas poga</t>
-  </si>
-  <si>
-    <t>Turēšanas, "space" poga</t>
-  </si>
-  <si>
     <t>Punkti tiek iedoti pēc prasībām</t>
   </si>
   <si>
@@ -763,18 +736,6 @@
   </si>
   <si>
     <t>Veselību var palielināt</t>
-  </si>
-  <si>
-    <t>PR.SP.15</t>
-  </si>
-  <si>
-    <t>PR.SP.16</t>
-  </si>
-  <si>
-    <t>PR.SP.17</t>
-  </si>
-  <si>
-    <t>PR.SP.18</t>
   </si>
   <si>
     <t>Līmeņa datus var izlasīt</t>
@@ -841,12 +802,6 @@
     <t>Lādēšanās ekrāns parādas</t>
   </si>
   <si>
-    <t>PR.SP.04,
-PR.SP.05,
-PR.SP.06,
-PR.SP.07</t>
-  </si>
-  <si>
     <t>TP.SP.FA.03.1</t>
   </si>
   <si>
@@ -854,9 +809,6 @@
   </si>
   <si>
     <t>TP.SP.FA.03.3</t>
-  </si>
-  <si>
-    <t>PR.SP.19</t>
   </si>
   <si>
     <t>Notis iziet no ekrāna un samazina dzīvību</t>
@@ -904,6 +856,18 @@
   </si>
   <si>
     <t>parādas partikuls ar 300p simbolu, tiek iedoti 300p kopēja punktu skaitā, 5% dzīvības ir atdots, atskaņota efekta skaņa</t>
+  </si>
+  <si>
+    <t>TP.SP.FA.04</t>
+  </si>
+  <si>
+    <t>Nots turēšanas gandrīz  netrāpīšanas  gadijumā</t>
+  </si>
+  <si>
+    <t>Turot pozīcijas pogu</t>
+  </si>
+  <si>
+    <t>Viena spiediena pozīcijas pogas</t>
   </si>
 </sst>
 </file>
@@ -1660,11 +1624,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B37:B44"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,7 +1854,7 @@
         <v>207</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1898,7 +1862,7 @@
         <v>208</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1906,7 +1870,7 @@
         <v>209</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1925,12 +1889,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>212</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1938,79 +1902,31 @@
         <v>213</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2030,9 +1946,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,25 +2537,25 @@
     </row>
     <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>204</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>203</v>
@@ -2647,25 +2563,25 @@
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>214</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>186</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>205</v>
@@ -2673,25 +2589,25 @@
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>186</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>206</v>
@@ -2699,91 +2615,97 @@
     </row>
     <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>273</v>
-      </c>
       <c r="E30" s="22" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>274</v>
-      </c>
       <c r="E31" s="22" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>262</v>
+      </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="20"/>
+      <c r="H32" s="21" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
@@ -2793,7 +2715,7 @@
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="20"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
@@ -2803,7 +2725,7 @@
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="20"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>

--- a/Documentation/Testēšanas dokuimentācija.xlsx
+++ b/Documentation/Testēšanas dokuimentācija.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mazzy\Unity\CyberShock\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlis.melveris\Personal files\CyberShock\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0A0A34-0452-49C2-BF14-B3974C952486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58AB706-C208-460A-A69B-A2C670B97B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="945" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6690" yWindow="3465" windowWidth="38565" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apraksts" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="289">
   <si>
     <t>Identifikatoru atšifrējums:</t>
   </si>
@@ -726,16 +726,7 @@
     <t>PR.SP.12</t>
   </si>
   <si>
-    <t>PR.SP.13</t>
-  </si>
-  <si>
     <t>Punkti tiek iedoti pēc prasībām</t>
-  </si>
-  <si>
-    <t>Veselību var samazināt</t>
-  </si>
-  <si>
-    <t>Veselību var palielināt</t>
   </si>
   <si>
     <t>Līmeņa datus var izlasīt</t>
@@ -821,9 +812,6 @@
   </si>
   <si>
     <t>"Right", "Left", "up", "d", "a", "w", vai "space"</t>
-  </si>
-  <si>
-    <t>parādas partikuls ar 100p simbolu, tiek iedoti 100p kopēja punktu skaitā, samazināta dzīvība, atskaņota efekta skaņa</t>
   </si>
   <si>
     <t>Ja lietotāja spēles gaitā ir gandrīz perfekti nospiesta pareizā poga tad jābūt iedotiem 200 punktiem</t>
@@ -834,9 +822,6 @@
 3) Jānospiež pareizā poga</t>
   </si>
   <si>
-    <t>parādas partikuls ar 200p simbolu, tiek iedoti 200p kopēja punktu skaitā, atskaņota efekta skaņa</t>
-  </si>
-  <si>
     <t>Gandrīz perfektā nots, vienkikšķa gadijumā</t>
   </si>
   <si>
@@ -855,19 +840,114 @@
     <t>Ja lietotājs dabuja perfektu noti, tiek dots maksimāli dauzd punktu</t>
   </si>
   <si>
-    <t>parādas partikuls ar 300p simbolu, tiek iedoti 300p kopēja punktu skaitā, 5% dzīvības ir atdots, atskaņota efekta skaņa</t>
-  </si>
-  <si>
     <t>TP.SP.FA.04</t>
   </si>
   <si>
-    <t>Nots turēšanas gandrīz  netrāpīšanas  gadijumā</t>
-  </si>
-  <si>
     <t>Turot pozīcijas pogu</t>
   </si>
   <si>
     <t>Viena spiediena pozīcijas pogas</t>
+  </si>
+  <si>
+    <t>Nots turēšanas, gandrīz  zaudēšanas gadijumā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sākumā ir vienkārša, vienklikšķa nots, bet aiz tās ir redzama gara līnija. </t>
+  </si>
+  <si>
+    <t>Ja lietotājs perfekti nospiež vienklikšķa pogu, bet netur pogu nospiestu, tad ir iedoti minimālie garās notis punktus (300+0)</t>
+  </si>
+  <si>
+    <t>1) Atvērt līmeni
+2) Izmantojot paredzamu laika klikšķi vai palēninātu spēli
+3) Jānospiež pareizā poga
+4) Uzreiz atlaist</t>
+  </si>
+  <si>
+    <t>Parādas partikuls ar 300p simbolu, tiek iedoti 300p kopēja punktu skaitā, 5% dzīvības ir atdots, atskaņota efekta skaņa</t>
+  </si>
+  <si>
+    <t>Parādas partikuls ar 200p simbolu, tiek iedoti 200p kopēja punktu skaitā, atskaņota efekta skaņa</t>
+  </si>
+  <si>
+    <t>Parādas partikuls ar 100p simbolu, tiek iedoti 100p kopēja punktu skaitā, samazināta dzīvība, atskaņota efekta skaņa</t>
+  </si>
+  <si>
+    <t>Parādas vienklikšķa punktu partikuls un samazina dzīvību mazliet</t>
+  </si>
+  <si>
+    <t>TP.SP.FA.05</t>
+  </si>
+  <si>
+    <t>TP.SP.FA.06</t>
+  </si>
+  <si>
+    <t>Nots turēšanas,  gadijumā</t>
+  </si>
+  <si>
+    <t>Ja lietotājs perfekti nospiež vienklikšķa pogu un tad tur pog, katru "beat" tieks iedoti 50 ekstra punkti.</t>
+  </si>
+  <si>
+    <t>Parādas vienklikšķa punktu partikuls un nietekmē dzīvību</t>
+  </si>
+  <si>
+    <t>1) Atvērt līmeni
+2) Izmantojot paredzamu laika klikšķi vai palēninātu spēli
+3) Jānospiež pareizā poga
+4) Turēt klikšķi nospiestu</t>
+  </si>
+  <si>
+    <t>Notis iziet no ekrāna</t>
+  </si>
+  <si>
+    <t>Ja jebkura nots iziet no ekrāna tā tiek izdzēsta un 15% dzīvības tiek atņemti</t>
+  </si>
+  <si>
+    <t>Lietotājs nenospiež uz ekrānu</t>
+  </si>
+  <si>
+    <t>Nots tiek izdzēsta un 15% dzīvības tiek atņemta</t>
+  </si>
+  <si>
+    <t>Šis ir piemērs kas notiek ja nespiež nevienu pogu spēles sākumā</t>
+  </si>
+  <si>
+    <t>1) Ater līmeni
+2) Skatās uz dzīvību</t>
+  </si>
+  <si>
+    <t>Punktu palielināšana</t>
+  </si>
+  <si>
+    <t>Pēc punktu iegūšanas ir jāpārliecinās ka tie tiek saglabāti</t>
+  </si>
+  <si>
+    <t>1) Atver līmeni
+2) Pēc līmeņa pabeigšanas tiek parādīts gala ekrāns kas rāda cik punkti tika iegūti</t>
+  </si>
+  <si>
+    <t>Punkti tiek vizuāli palielināti un ir redzami sēles beigās</t>
+  </si>
+  <si>
+    <t>Punkti vienmēr ir vienādi sarp visiem gadījumiem kur ir redzami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pēc līmeņa beigām iek redzami </t>
+  </si>
+  <si>
+    <t>TP.SP.FA.07</t>
+  </si>
+  <si>
+    <t>TP.SP.FA.08</t>
+  </si>
+  <si>
+    <t>Pēc līmeņa pabeigšanas tiek saglabāti visi dati par spēles gaitu un ir redzami izvēlnē</t>
+  </si>
+  <si>
+    <t>Punkti un reitings ir redams pēc spēles pabeigšanas</t>
+  </si>
+  <si>
+    <t>Punkti un reitngs vienmēr ir vienādi sarp visiem gadījumiem kur ir redzami</t>
   </si>
 </sst>
 </file>
@@ -1624,11 +1704,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,7 +1934,7 @@
         <v>207</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1862,7 +1942,7 @@
         <v>208</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1870,7 +1950,7 @@
         <v>209</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1878,7 +1958,7 @@
         <v>210</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1886,7 +1966,7 @@
         <v>211</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1894,7 +1974,7 @@
         <v>212</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1902,7 +1982,7 @@
         <v>213</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1910,23 +1990,12 @@
         <v>216</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>217</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1946,9 +2015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2537,25 +2606,25 @@
     </row>
     <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>204</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>203</v>
@@ -2563,25 +2632,25 @@
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>214</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>186</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>205</v>
@@ -2589,25 +2658,25 @@
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B28" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>241</v>
-      </c>
       <c r="E28" s="22" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>186</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>206</v>
@@ -2615,25 +2684,25 @@
     </row>
     <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C29" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>252</v>
-      </c>
       <c r="F29" s="22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>207</v>
@@ -2641,25 +2710,25 @@
     </row>
     <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="H30" s="21" t="s">
         <v>207</v>
@@ -2667,85 +2736,159 @@
     </row>
     <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H31" s="21" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
+      <c r="F32" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>265</v>
+      </c>
       <c r="H32" s="21" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="21"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="20"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="20"/>
+    <row r="33" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>

--- a/Documentation/Testēšanas dokuimentācija.xlsx
+++ b/Documentation/Testēšanas dokuimentācija.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlis.melveris\Personal files\CyberShock\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mazzy\Unity\CyberShock\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58AB706-C208-460A-A69B-A2C670B97B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013A7B98-3D43-4EEA-A915-FC25ECE4FD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="3465" windowWidth="38565" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apraksts" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="289">
   <si>
     <t>Identifikatoru atšifrējums:</t>
   </si>
@@ -723,9 +723,6 @@
     <t>PR.SP.11</t>
   </si>
   <si>
-    <t>PR.SP.12</t>
-  </si>
-  <si>
     <t>Punkti tiek iedoti pēc prasībām</t>
   </si>
   <si>
@@ -948,6 +945,9 @@
   </si>
   <si>
     <t>Punkti un reitngs vienmēr ir vienādi sarp visiem gadījumiem kur ir redzami</t>
+  </si>
+  <si>
+    <t>TP.SP.FA.09</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1707,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -1934,7 +1934,7 @@
         <v>207</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1942,7 +1942,7 @@
         <v>208</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1950,7 +1950,7 @@
         <v>209</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
         <v>210</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +1966,7 @@
         <v>211</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1974,7 +1974,7 @@
         <v>212</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1982,7 +1982,7 @@
         <v>213</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1990,13 +1990,11 @@
         <v>216</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>217</v>
-      </c>
+      <c r="A37" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2013,11 +2011,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2606,25 +2604,25 @@
     </row>
     <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="C26" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>204</v>
       </c>
       <c r="E26" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="F26" s="22" t="s">
-        <v>227</v>
-      </c>
       <c r="G26" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>203</v>
@@ -2632,25 +2630,25 @@
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>214</v>
       </c>
       <c r="C27" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="E27" s="22" t="s">
         <v>230</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>231</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>186</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>205</v>
@@ -2658,25 +2656,25 @@
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="C28" s="22" t="s">
+      <c r="D28" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>238</v>
-      </c>
       <c r="E28" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>186</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>206</v>
@@ -2684,25 +2682,25 @@
     </row>
     <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C29" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="F29" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>246</v>
-      </c>
       <c r="G29" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>207</v>
@@ -2710,25 +2708,25 @@
     </row>
     <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C30" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="E30" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="D30" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>248</v>
-      </c>
       <c r="F30" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H30" s="21" t="s">
         <v>207</v>
@@ -2736,25 +2734,25 @@
     </row>
     <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>252</v>
-      </c>
       <c r="D31" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H31" s="21" t="s">
         <v>207</v>
@@ -2762,25 +2760,25 @@
     </row>
     <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B32" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="D32" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="E32" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="E32" s="22" t="s">
-        <v>261</v>
-      </c>
       <c r="F32" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>208</v>
@@ -2788,25 +2786,25 @@
     </row>
     <row r="33" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B33" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="D33" s="22" t="s">
+      <c r="E33" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" s="22" t="s">
         <v>269</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>270</v>
       </c>
       <c r="H33" s="21" t="s">
         <v>208</v>
@@ -2814,25 +2812,25 @@
     </row>
     <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B34" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="D34" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="E34" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="G34" s="22" t="s">
         <v>274</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>275</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>209</v>
@@ -2840,25 +2838,25 @@
     </row>
     <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B35" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="C35" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="D35" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="F35" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" s="22" t="s">
         <v>281</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>282</v>
       </c>
       <c r="H35" s="21" t="s">
         <v>210</v>
@@ -2866,39 +2864,48 @@
     </row>
     <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="C36" s="22" t="s">
+      <c r="D36" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="E36" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="G36" s="22" t="s">
         <v>287</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>288</v>
       </c>
       <c r="H36" s="21" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="22" t="s">
+        <v>288</v>
+      </c>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="20"/>
+      <c r="H37" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="21" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Documentation/Testēšanas dokuimentācija.xlsx
+++ b/Documentation/Testēšanas dokuimentācija.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mazzy\Unity\CyberShock\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013A7B98-3D43-4EEA-A915-FC25ECE4FD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495B38D5-58F7-4664-B88F-5E6AEFBCE7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apraksts" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="364">
   <si>
     <t>Identifikatoru atšifrējums:</t>
   </si>
@@ -105,18 +105,12 @@
     <t>Black Box</t>
   </si>
   <si>
-    <t>TP.IZV.01</t>
-  </si>
-  <si>
     <t>Programmas startēšana</t>
   </si>
   <si>
     <t>PR.01</t>
   </si>
   <si>
-    <t>TP.APT.01</t>
-  </si>
-  <si>
     <t>Programmas apturēšana</t>
   </si>
   <si>
@@ -153,21 +147,12 @@
     <t>Black box</t>
   </si>
   <si>
-    <t>TZ.B.01</t>
-  </si>
-  <si>
-    <t>2022-06-16</t>
-  </si>
-  <si>
     <t>Kārlis Melveris</t>
   </si>
   <si>
     <t>Veiksmīgs</t>
   </si>
   <si>
-    <t>Neveiksmīgi</t>
-  </si>
-  <si>
     <t>Nekas nenotiek</t>
   </si>
   <si>
@@ -307,9 +292,6 @@
   </si>
   <si>
     <t>Var individuāli mainīt mūzikas skaņu</t>
-  </si>
-  <si>
-    <t>Nospiežot uz spēles ikonu spēle atverās, un naizver pati sevi</t>
   </si>
   <si>
     <t>Peles klikšķis</t>
@@ -929,9 +911,6 @@
     <t>Punkti vienmēr ir vienādi sarp visiem gadījumiem kur ir redzami</t>
   </si>
   <si>
-    <t xml:space="preserve">Pēc līmeņa beigām iek redzami </t>
-  </si>
-  <si>
     <t>TP.SP.FA.07</t>
   </si>
   <si>
@@ -948,13 +927,263 @@
   </si>
   <si>
     <t>TP.SP.FA.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pēc līmeņa beigām punkti ir redzami </t>
+  </si>
+  <si>
+    <t>T.1</t>
+  </si>
+  <si>
+    <t>T.2</t>
+  </si>
+  <si>
+    <t>vienklikšķa  būltas ievietošana</t>
+  </si>
+  <si>
+    <t>Vienklikšķa būltas parādas līmeņos</t>
+  </si>
+  <si>
+    <t>1) Līmeņa datos ir noteikti vienklikšķi
+2) Līmenī ir redzami vienklikšķi</t>
+  </si>
+  <si>
+    <t>Līmeņa dati</t>
+  </si>
+  <si>
+    <t>TP.SP.FA.10</t>
+  </si>
+  <si>
+    <t>TP.SP.FA.11</t>
+  </si>
+  <si>
+    <t>Turēšanas būltas ievietošana</t>
+  </si>
+  <si>
+    <t>Līmeņa datos ir jābūt vien nots pozīcija un tips noteikts, lai līmeņa gaitā var izlasīt un ievietot turēšanas būltu</t>
+  </si>
+  <si>
+    <t>Līmeņa datos ir jābūt vienklikšķa nots pozīcija un tips noteikts, lai līmeņa gaitā var izlasīt un ievietot vienklikšķa būltu</t>
+  </si>
+  <si>
+    <t>Turēšanas būltas parādas līmeņos</t>
+  </si>
+  <si>
+    <t>1) Līmeņa datos ir noteikti turēšanas
+2) Līmenī ir redzami turēšanas notis</t>
+  </si>
+  <si>
+    <t>Līmenī ir ievietotas vienklkikšķa būltas</t>
+  </si>
+  <si>
+    <t>Līmenī ir ievietotas turēšanas būltas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Līmeņa datos var noteikt cik ātri nāk notis no aukšas </t>
+  </si>
+  <si>
+    <t>1)Līmeņa datos ir noteikts ātrums
+2) notes ātrums ir redzams līmeņos</t>
+  </si>
+  <si>
+    <t>Ja līmeņu datos ir lielāks ātrums noteikts tad būltas iet no aukšas uz leju ātrāk</t>
+  </si>
+  <si>
+    <t>PR.SP.12</t>
+  </si>
+  <si>
+    <t>var notiekt notes atkārtojamību</t>
+  </si>
+  <si>
+    <t>TP.SP.FA.12</t>
+  </si>
+  <si>
+    <t>Nots ātruma noteikšana</t>
+  </si>
+  <si>
+    <t>Nots BPM noteikšana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Līmeņa datos var noteikt cik daudz notis nāk sekundē </t>
+  </si>
+  <si>
+    <t>Nots BPM ir noteiks un redzams spēlējot līmeņus</t>
+  </si>
+  <si>
+    <t>Nots ātrumu var noteiks un redzams spēlējot līmeņus</t>
+  </si>
+  <si>
+    <t>1)Līmeņa datos ir noteikts ātrums
+2) notes BPM ir redzams līmeņos</t>
+  </si>
+  <si>
+    <t>Ja līmeņu datos ir BPM  noteikts tad būltas iet no aukšas uz leju vairāk sekundē</t>
+  </si>
+  <si>
+    <t>Nospiežot uz spēles ikonu spēle atverās, un aizver pati sevi</t>
+  </si>
+  <si>
+    <t>T.sak.1</t>
+  </si>
+  <si>
+    <t>T.sak.2</t>
+  </si>
+  <si>
+    <t>T.sak.3</t>
+  </si>
+  <si>
+    <t>Neveiksmīgs</t>
+  </si>
+  <si>
+    <t>Programma netiek apturēta</t>
+  </si>
+  <si>
+    <t>KZ.1</t>
+  </si>
+  <si>
+    <t>T.IEST.1</t>
+  </si>
+  <si>
+    <t>T.IZV.1</t>
+  </si>
+  <si>
+    <t>T.IZV.2</t>
+  </si>
+  <si>
+    <t>T.IZV.3</t>
+  </si>
+  <si>
+    <t>T.IZV.4</t>
+  </si>
+  <si>
+    <t>T.IZV.5</t>
+  </si>
+  <si>
+    <t>T.IZV.6</t>
+  </si>
+  <si>
+    <t>T.IZV.7</t>
+  </si>
+  <si>
+    <t>T.IEST.2</t>
+  </si>
+  <si>
+    <t>T.IEST.3</t>
+  </si>
+  <si>
+    <t>T.IEST.4</t>
+  </si>
+  <si>
+    <t>T.IEST.5</t>
+  </si>
+  <si>
+    <t>T.IEST.6</t>
+  </si>
+  <si>
+    <t>T.IEST.7</t>
+  </si>
+  <si>
+    <t>Mainīt effektu skaļumu</t>
+  </si>
+  <si>
+    <t>Mainīt mūzikas skaļumu</t>
+  </si>
+  <si>
+    <t>netiek saglabāti dati un skaļums ir iestatīts vienmēr uz maksimālo skaļumu</t>
+  </si>
+  <si>
+    <t>KZ.2</t>
+  </si>
+  <si>
+    <t>T.SP.1</t>
+  </si>
+  <si>
+    <t>T.SP.2</t>
+  </si>
+  <si>
+    <t>T.SP.3</t>
+  </si>
+  <si>
+    <t>T.SP.4</t>
+  </si>
+  <si>
+    <t>T.SP.5</t>
+  </si>
+  <si>
+    <t>T.SP.6</t>
+  </si>
+  <si>
+    <t>T.SP.7</t>
+  </si>
+  <si>
+    <t>T.SP.8</t>
+  </si>
+  <si>
+    <t>T.SP.9</t>
+  </si>
+  <si>
+    <t>T.SP.10</t>
+  </si>
+  <si>
+    <t>T.SP.11</t>
+  </si>
+  <si>
+    <t>T.SP.12</t>
+  </si>
+  <si>
+    <t>T.SP.13</t>
+  </si>
+  <si>
+    <t>T.SP.14</t>
+  </si>
+  <si>
+    <t>T.SP.15</t>
+  </si>
+  <si>
+    <t>Mats Dalehamn Sletvold</t>
+  </si>
+  <si>
+    <t>Garās notis neparādas</t>
+  </si>
+  <si>
+    <t>KZ.3</t>
+  </si>
+  <si>
+    <t>KZ.4</t>
+  </si>
+  <si>
+    <t>Thomas Hawke</t>
+  </si>
+  <si>
+    <t>Netiek parādīti</t>
+  </si>
+  <si>
+    <t>White box</t>
+  </si>
+  <si>
+    <t>KZ.5</t>
+  </si>
+  <si>
+    <t>KZ.6</t>
+  </si>
+  <si>
+    <t>KZ.7</t>
+  </si>
+  <si>
+    <t>KZ.8</t>
+  </si>
+  <si>
+    <t>Būltas nevar pievienot</t>
+  </si>
+  <si>
+    <t>PNTA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,8 +1293,24 @@
       <charset val="186"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1098,18 +1343,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC5E0B3"/>
-        <bgColor rgb="FFC5E0B3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFCC0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor rgb="FFF6B26B"/>
       </patternFill>
@@ -1118,6 +1351,22 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor rgb="FFF6B26B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1130,11 +1379,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1159,8 +1411,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1183,6 +1433,32 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1212,17 +1488,23 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="60% - Accent6" xfId="4" builtinId="52"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
@@ -1558,35 +1840,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="A1" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1609,80 +1891,80 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="24"/>
+      <c r="A14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="32"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="24"/>
+      <c r="A15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1706,9 +1988,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,275 +2008,280 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>52</v>
+      <c r="B3" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>53</v>
+      <c r="B4" s="15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="39"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="39"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="31"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="B13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="18" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="B16" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="18" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="39"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="B19" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="19" t="s">
+      <c r="B20" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="31"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="B21" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B22" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="B23" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>179</v>
+      <c r="A24" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="31"/>
+      <c r="A25" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="39"/>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B31" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="B32" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B33" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="B28" s="19" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>221</v>
-      </c>
-    </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
+      <c r="A37" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>302</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2006,16 +2293,17 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,855 +2345,1130 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>98</v>
+      <c r="A3" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="16" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="F4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="H8" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="B10" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="H13" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="22" t="s">
+      <c r="B15" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="D22" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="H29" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="22" t="s">
+    </row>
+    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="H32" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-    </row>
-    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-    </row>
-    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D26" s="22" t="s">
+    </row>
+    <row r="33" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="H35" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="E26" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="H27" s="20" t="s">
+    </row>
+    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H36" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="H28" s="20" t="s">
+    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="H37" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="H29" s="21" t="s">
+    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="H38" s="19" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="H35" s="21" t="s">
+    <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="H39" s="19" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+    <row r="40" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="F40" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H38" s="21" t="s">
-        <v>213</v>
-      </c>
+      <c r="G40" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="19"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="19"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="19"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="19"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="19"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="19"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2923,11 +3486,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2938,105 +3501,933 @@
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="24">
+        <v>45338</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="F3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>24</v>
+      <c r="A4" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="24">
+        <v>45338</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="24">
+        <v>45402</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="H6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="24">
+        <v>45402</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="24">
+        <v>45402</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="B10" s="24">
+        <v>45422</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="B11" s="24">
+        <v>45422</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="24">
+        <v>45422</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="B13" s="24">
+        <v>45423</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B14" s="24">
+        <v>45426</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" s="24">
+        <v>45424</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16" s="24">
+        <v>45424</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="24">
+        <v>45422</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B19" s="24">
+        <v>45422</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="B20" s="24">
+        <v>45422</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" s="24">
+        <v>45422</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22" s="24">
+        <v>45424</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="H22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23" s="24">
+        <v>45424</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="H23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="B24" s="24">
+        <v>45424</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="H24" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="B25" s="24">
+        <v>45443</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26" s="24">
+        <v>45443</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="B27" s="24">
+        <v>45443</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="B29" s="24">
+        <v>45447</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="B30" s="24">
+        <v>45367</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="B31" s="24">
+        <v>45367</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="B32" s="24">
+        <v>45424</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="B33" s="24">
+        <v>45424</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="B34" s="24">
+        <v>45424</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="B35" s="24">
+        <v>45449</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="G35" t="s">
+        <v>352</v>
+      </c>
+      <c r="H35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="B36" s="24">
+        <v>45449</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="G36" t="s">
+        <v>352</v>
+      </c>
+      <c r="H36" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="B37" s="24">
+        <v>45450</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="B38" s="24">
+        <v>45447</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39" s="24">
+        <v>45447</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="G39" t="s">
+        <v>356</v>
+      </c>
+      <c r="H39" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="B41" s="24">
+        <v>45367</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B42" s="24">
+        <v>45367</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="G42" t="s">
+        <v>362</v>
+      </c>
+      <c r="H42" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B43" s="24">
+        <v>45402</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="B44" s="24">
+        <v>45402</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A45:H45"/>
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A28:H28"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3046,72 +4437,559 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+    </row>
+    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="F3" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="F10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="31"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="31"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="31"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="31"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="31"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="31"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="31"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="31"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="31"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="31"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="31"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="31"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="31"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="31"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="31"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="31"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="31"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="31"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="31"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:F2"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>